--- a/Project 5(SQL)/Визуализация балансов и выводы.xlsx
+++ b/Project 5(SQL)/Визуализация балансов и выводы.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Александр\Documents\Занятия\Аналитика данных\Курс Skypro\SQL\Курсовая\Доработка\Выгрузка\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Александр\Documents\Занятия\Аналитика данных\Курс Skypro\7 блок - Аттестация\Портфолио\Публикация\Проект 5 - Моделирование изменения балансов студентов\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F23F964-3F9C-4BAC-82FC-7610AF5BC599}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4AEF9CC-E033-4BEE-91DD-C0FE69D9A671}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>dt</t>
   </si>
@@ -43,15 +43,6 @@
     <t>-- 1. Ученики занимаются без оплат. В балансе иногда появляются отрицательные числа. Почему?</t>
   </si>
   <si>
-    <t>-- 2. Что произошло 31 августа и 20 октября, откуда такой резкий всплеск в балансе в -2211 и -1199?</t>
-  </si>
-  <si>
-    <t>-- 3. Почему 3 мая и 18 октября была оплата ровно 64 уроков у двух разных учеников?Какие-те нетепичный выбросы.</t>
-  </si>
-  <si>
-    <t>Задание 1</t>
-  </si>
-  <si>
     <t>Задание 2</t>
   </si>
   <si>
@@ -67,20 +58,39 @@
     <t>-- 4. п. 3. может говорить о том, что основные ученики - школьники и студенты, что проверяется по данным учеников. Соответственно, возможно расширение клиентской базы за счет других групп людей.</t>
   </si>
   <si>
-    <t>https://metabase.sky.pro/question/74000</t>
+    <t xml:space="preserve"> -- 2. Почему 3 мая и 18 октября была оплата ровно 64 уроков у двух разных учеников?Какие-те нетепичный выбросы.</t>
+  </si>
+  <si>
+    <t>1 часть</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> -- 5. Касательно прохождения уроков (CL_SUM) мы явно видим, что в выходные и праздничные дни ученики занимаются менее активно, что особенно заметно в мае - 1-го и 8-го числа (праздничные дни)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> -- 6. При этом транзакции в выходные и праздничные дни также происходят значительно реже (например 30-го января, 7, 8-го мая оплат вообще не было)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> -- 7. К концу года на балансе студентов осталось 4534 урок, т.е. студентам было начислено больше уроков, чем было пройдено. Что может говорить о том, что много учеников к концу года забросило обучение.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF1F2328"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+      <charset val="204"/>
     </font>
   </fonts>
   <fills count="2">
@@ -103,9 +113,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -7951,10 +7964,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H362"/>
+  <dimension ref="A1:U362"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N45" sqref="N45"/>
+      <selection activeCell="H47" sqref="H47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8607,10 +8620,10 @@
         <v>468</v>
       </c>
       <c r="H32" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="33" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>42406</v>
       </c>
@@ -8630,7 +8643,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:21" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>42407</v>
       </c>
@@ -8652,8 +8665,9 @@
       <c r="H34" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="U34" s="2"/>
+    </row>
+    <row r="35" spans="1:21" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>42408</v>
       </c>
@@ -8672,11 +8686,9 @@
       <c r="F35">
         <v>574</v>
       </c>
-      <c r="H35" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="U35" s="2"/>
+    </row>
+    <row r="36" spans="1:21" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>42409</v>
       </c>
@@ -8696,10 +8708,11 @@
         <v>639</v>
       </c>
       <c r="H36" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+      <c r="U36" s="2"/>
+    </row>
+    <row r="37" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>42410</v>
       </c>
@@ -8719,7 +8732,7 @@
         <v>751</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>42411</v>
       </c>
@@ -8739,10 +8752,10 @@
         <v>748</v>
       </c>
       <c r="H38" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="39" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>42412</v>
       </c>
@@ -8762,7 +8775,7 @@
         <v>743</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>42413</v>
       </c>
@@ -8782,10 +8795,10 @@
         <v>758</v>
       </c>
       <c r="H40" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="41" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>42414</v>
       </c>
@@ -8805,10 +8818,10 @@
         <v>848</v>
       </c>
       <c r="H41" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="42" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>42415</v>
       </c>
@@ -8828,10 +8841,10 @@
         <v>877</v>
       </c>
       <c r="H42" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="43" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>42416</v>
       </c>
@@ -8851,10 +8864,10 @@
         <v>934</v>
       </c>
       <c r="H43" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="44" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>42417</v>
       </c>
@@ -8873,8 +8886,11 @@
       <c r="F44">
         <v>937</v>
       </c>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H44" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="45" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>42418</v>
       </c>
@@ -8897,7 +8913,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>42419</v>
       </c>
@@ -8916,8 +8932,11 @@
       <c r="F46">
         <v>919</v>
       </c>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H46" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="47" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>42420</v>
       </c>
@@ -8937,7 +8956,7 @@
         <v>926</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>42421</v>
       </c>
